--- a/data/trans_dic/P56$nadie-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1512284200633768</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04015760467711896</v>
+        <v>0.04015760467711897</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.08821645654096921</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01720515238010509</v>
+        <v>0.01735151426375809</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01333716151251914</v>
+        <v>0.01383843953248313</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0518768020299434</v>
+        <v>0.04872769939380108</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04092200745303765</v>
+        <v>0.039565109230245</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09231972559078612</v>
+        <v>0.09511244902535568</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02452830806470093</v>
+        <v>0.02429119169516884</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04685262504903007</v>
+        <v>0.0463648793845687</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03268362101894781</v>
+        <v>0.03633320448231428</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07470688527982595</v>
+        <v>0.07211698058934821</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02607007789942175</v>
+        <v>0.02514862232902903</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1669999740728844</v>
+        <v>0.1679840926107003</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1126019065787965</v>
+        <v>0.09402434567108918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09622462600257302</v>
+        <v>0.1076627816226582</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09689906977569214</v>
+        <v>0.09766673393027298</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.202499272854999</v>
+        <v>0.1923466596391144</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1127440812421355</v>
+        <v>0.1230353143712681</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2341129341407135</v>
+        <v>0.2288477508215857</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06366726248968341</v>
+        <v>0.06216279078577924</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.149924931222757</v>
+        <v>0.151881179496491</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09602047489625946</v>
+        <v>0.09479385695288634</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1777910055387948</v>
+        <v>0.1722855075251461</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05938781010186806</v>
+        <v>0.05803694607282936</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2063478449824171</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07413486448040855</v>
+        <v>0.07413486448040857</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1950138068028678</v>
@@ -821,7 +821,7 @@
         <v>0.1864274131271123</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03366830089650463</v>
+        <v>0.03366830089650461</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1959528573314499</v>
@@ -851,27 +851,27 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01807307291179499</v>
+        <v>0.01767536616209794</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.04439900064538491</v>
+        <v>0.04544763057974457</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008193506681703008</v>
+        <v>0.007916802137371488</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="inlineStr"/>
       <c r="M8" s="5" t="n">
-        <v>0.06471194815847153</v>
+        <v>0.07764240841414284</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01831393759700469</v>
+        <v>0.01720364244085519</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8002235521631758</v>
+        <v>0.7881948032799454</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.5468704076294197</v>
+        <v>0.561036635853377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2059565697979011</v>
+        <v>0.2191627980320737</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7075641527179353</v>
+        <v>0.7267893008096574</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.384369040498162</v>
+        <v>0.3974712309297724</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09157152766838796</v>
+        <v>0.09074996838312248</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5768877442428441</v>
+        <v>0.5829960983316081</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.3673712462999867</v>
+        <v>0.3558960280220896</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1049218425909021</v>
+        <v>0.1048158196557166</v>
       </c>
     </row>
     <row r="10">
@@ -943,7 +943,7 @@
         <v>0.6252042969645413</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2886831586550283</v>
+        <v>0.2886831586550282</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -979,15 +979,15 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07756281444801078</v>
+        <v>0.08100191205500669</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="n">
-        <v>0.1292656004495704</v>
+        <v>0.132522115515828</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07293411513052143</v>
+        <v>0.08813147622813612</v>
       </c>
     </row>
     <row r="12">
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4529955438842816</v>
+        <v>0.4451388495956708</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
@@ -1011,15 +1011,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5532582749654096</v>
+        <v>0.5843157751033922</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.8914396564179162</v>
+        <v>0.9055657102492034</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4079963871996536</v>
+        <v>0.4154475660312561</v>
       </c>
     </row>
     <row r="13">
@@ -1067,7 +1067,7 @@
         <v>0.1412304816095649</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04888341929708323</v>
+        <v>0.04888341929708324</v>
       </c>
     </row>
     <row r="14">
@@ -1078,40 +1078,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0278130723542502</v>
+        <v>0.02799886188492637</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03807259682879708</v>
+        <v>0.03541289458553529</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03171966705682919</v>
+        <v>0.03063964923380234</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03064324794999224</v>
+        <v>0.03299152785732563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03494622268700355</v>
+        <v>0.03482846368993745</v>
       </c>
     </row>
     <row r="15">
@@ -1122,40 +1122,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1014648205404419</v>
+        <v>0.09804008683313063</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1100038801542099</v>
+        <v>0.1062463142480602</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06743411368050277</v>
+        <v>0.06968003243294743</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08830155539818899</v>
+        <v>0.08740712248106472</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06629247672722212</v>
+        <v>0.06889265171081742</v>
       </c>
     </row>
     <row r="16">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1434,31 +1434,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4327</v>
+        <v>4065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7609</v>
+        <v>7357</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13177</v>
+        <v>13576</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5327</v>
+        <v>5275</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5976</v>
+        <v>5914</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8313</v>
+        <v>9241</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14898</v>
+        <v>14382</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7545</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="7">
@@ -1469,40 +1469,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7371</v>
+        <v>7414</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7701</v>
+        <v>6431</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5455</v>
+        <v>6103</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7001</v>
+        <v>7056</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16891</v>
+        <v>16045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20965</v>
+        <v>22878</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>33416</v>
+        <v>32664</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13827</v>
+        <v>13500</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19123</v>
+        <v>19373</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24422</v>
+        <v>24110</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>35456</v>
+        <v>34358</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17188</v>
+        <v>16797</v>
       </c>
     </row>
     <row r="8">
@@ -1612,27 +1612,27 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>1127</v>
+        <v>1154</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="inlineStr"/>
       <c r="M10" s="6" t="n">
-        <v>2366</v>
+        <v>2839</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1404</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="11">
@@ -1643,34 +1643,34 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3318</v>
+        <v>3268</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>6114</v>
+        <v>6272</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5889</v>
+        <v>6267</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4790</v>
+        <v>4920</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>9757</v>
+        <v>10089</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4401</v>
+        <v>4362</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6296</v>
+        <v>6363</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>13433</v>
+        <v>13013</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8043</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="12">
@@ -1784,15 +1784,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="n">
-        <v>1021</v>
+        <v>1047</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1117</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15">
@@ -1808,7 +1808,7 @@
         <v>4227</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3238</v>
+        <v>3182</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
@@ -1816,15 +1816,15 @@
         <v>3671</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4519</v>
+        <v>4773</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>7041</v>
+        <v>7152</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>6248</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="16">
@@ -1927,40 +1927,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3004</v>
+        <v>3024</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7696</v>
+        <v>7158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8672</v>
+        <v>8377</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8600</v>
+        <v>9259</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13328</v>
+        <v>13283</v>
       </c>
     </row>
     <row r="19">
@@ -1971,40 +1971,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10957</v>
+        <v>10587</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22236</v>
+        <v>21476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18436</v>
+        <v>19050</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>24781</v>
+        <v>24530</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>25283</v>
+        <v>26275</v>
       </c>
     </row>
     <row r="20">
